--- a/Road quality/processed_weighted_formal_road_quality.xlsx
+++ b/Road quality/processed_weighted_formal_road_quality.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Infrastructure\Excel_per_type\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Chapter\Output\Road quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDF8C995-ADC6-4A2E-AC4D-1E19B54C25AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4291D8E-A001-45CC-9083-BF0BDB287752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{25FFB5B8-6A00-452C-B9AD-8BC39AB1785A}"/>
+    <workbookView xWindow="420" yWindow="0" windowWidth="20760" windowHeight="20400" xr2:uid="{25FFB5B8-6A00-452C-B9AD-8BC39AB1785A}"/>
   </bookViews>
   <sheets>
     <sheet name="Quality of road by country" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>country</t>
   </si>
@@ -565,6 +564,9 @@
   </si>
   <si>
     <t>zimbabwe</t>
+  </si>
+  <si>
+    <t>Weighted grade</t>
   </si>
 </sst>
 </file>
@@ -600,13 +602,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2536,17 +2542,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15B403EE-DB77-4E13-9B1C-FC45933A5B8D}" name="Table1" displayName="Table1" ref="A1:K165" totalsRowShown="0">
-  <autoFilter ref="A1:K165" xr:uid="{D6E09C99-D5C9-421D-A02D-0FD71E6015B3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15B403EE-DB77-4E13-9B1C-FC45933A5B8D}" name="Table1" displayName="Table1" ref="A1:L165" totalsRowShown="0">
+  <autoFilter ref="A1:L165" xr:uid="{D6E09C99-D5C9-421D-A02D-0FD71E6015B3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K165">
     <sortCondition ref="A1:A165"/>
   </sortState>
-  <tableColumns count="11">
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{6B7FB1A2-9874-4227-903D-C59BBD926FFB}" name="country"/>
-    <tableColumn id="12" xr3:uid="{EE28D042-7596-427F-B19F-4102E7DC1E24}" name="GRIP-region" dataDxfId="1">
+    <tableColumn id="12" xr3:uid="{EE28D042-7596-427F-B19F-4102E7DC1E24}" name="GRIP-region" dataDxfId="2">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[country]],[1]Sheet1!$A$2:$A$173,[1]Sheet1!$B$2:$B$173)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{FE31D3D1-085E-4A70-BA69-245A4D29E642}" name="IMAGE-region" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{FE31D3D1-085E-4A70-BA69-245A4D29E642}" name="IMAGE-region" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[country]],[1]Sheet1!$A$2:$A$173,[1]Sheet1!$C$2:$C$173)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{FB0CF542-ECBF-40A9-8F1D-4F54A9AF95E6}" name="Impassable"/>
@@ -2558,6 +2564,9 @@
     <tableColumn id="8" xr3:uid="{C362DCE8-021F-422A-8305-4451BC23A45E}" name="Excellent"/>
     <tableColumn id="9" xr3:uid="{7749E232-016C-4635-A67E-56C4D1C194BD}" name="Total">
       <calculatedColumnFormula>SUM(D2:J2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{6789F2B7-DE39-46BE-8C06-6733F800E722}" name="Weighted grade" dataDxfId="0">
+      <calculatedColumnFormula>(D2*1+E2*2+F2*3+G2*4+H2*5+I2*6+J2*7)/K2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2861,10 +2870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE5E7D8-FFA8-47C2-881D-ED81D7EA02C0}">
-  <dimension ref="A1:K165"/>
+  <dimension ref="A1:L165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2877,7 +2886,7 @@
     <col min="10" max="10" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2911,8 +2920,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2946,11 +2958,15 @@
         <v>1.5860000000000001</v>
       </c>
       <c r="K2">
-        <f>SUM(D2:J2)</f>
+        <f t="shared" ref="K2:K33" si="0">SUM(D2:J2)</f>
         <v>1269.0500000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="1">
+        <f>(D2*1+E2*2+F2*3+G2*4+H2*5+I2*6+J2*7)/K2</f>
+        <v>3.117607659272684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2984,11 +3000,15 @@
         <v>995.17399999999998</v>
       </c>
       <c r="K3">
-        <f>SUM(D3:J3)</f>
+        <f t="shared" si="0"/>
         <v>6531.9229999999907</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L66" si="1">(D3*1+E3*2+F3*3+G3*4+H3*5+I3*6+J3*7)/K3</f>
+        <v>5.1175084274569675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3022,11 +3042,15 @@
         <v>101.547</v>
       </c>
       <c r="K4">
-        <f>SUM(D4:J4)</f>
+        <f t="shared" si="0"/>
         <v>8921.9419999999991</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0122763631505336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -3060,11 +3084,15 @@
         <v>2.2789999999999999</v>
       </c>
       <c r="K5">
-        <f>SUM(D5:J5)</f>
+        <f t="shared" si="0"/>
         <v>2.2789999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3098,11 +3126,15 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <f>SUM(D6:J6)</f>
+        <f t="shared" si="0"/>
         <v>1843.4420000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4918446037358368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -3136,11 +3168,15 @@
         <v>295.11099999999999</v>
       </c>
       <c r="K7">
-        <f>SUM(D7:J7)</f>
+        <f t="shared" si="0"/>
         <v>4716.8749999999991</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <f t="shared" si="1"/>
+        <v>4.4226715781105082</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -3174,11 +3210,15 @@
         <v>226.283999999999</v>
       </c>
       <c r="K8">
-        <f>SUM(D8:J8)</f>
+        <f t="shared" si="0"/>
         <v>3210.7149999999983</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3653211200620419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -3212,11 +3252,15 @@
         <v>1982.3219999999999</v>
       </c>
       <c r="K9">
-        <f>SUM(D9:J9)</f>
+        <f t="shared" si="0"/>
         <v>4582.6189999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="1">
+        <f t="shared" si="1"/>
+        <v>5.8375223862162668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -3250,11 +3294,15 @@
         <v>1051.8039999999901</v>
       </c>
       <c r="K10">
-        <f>SUM(D10:J10)</f>
+        <f t="shared" si="0"/>
         <v>3059.0359999999901</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <f t="shared" si="1"/>
+        <v>5.9910589479823031</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3288,11 +3336,15 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <f>SUM(D11:J11)</f>
+        <f t="shared" si="0"/>
         <v>420.45899999999904</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <f t="shared" si="1"/>
+        <v>4.8185340306664823</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -3326,11 +3378,15 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <f>SUM(D12:J12)</f>
+        <f t="shared" si="0"/>
         <v>9.6069999999999993</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="1">
+        <f t="shared" si="1"/>
+        <v>4.015301342770897</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3364,11 +3420,15 @@
         <v>38.591000000000001</v>
       </c>
       <c r="K13">
-        <f>SUM(D13:J13)</f>
+        <f t="shared" si="0"/>
         <v>533.38</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="1">
+        <f t="shared" si="1"/>
+        <v>5.297761445873487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3402,11 +3462,15 @@
         <v>3891.1170000000002</v>
       </c>
       <c r="K14">
-        <f>SUM(D14:J14)</f>
+        <f t="shared" si="0"/>
         <v>15873.264000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="1">
+        <f t="shared" si="1"/>
+        <v>5.0826478410489493</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -3440,11 +3504,15 @@
         <v>479.21899999999999</v>
       </c>
       <c r="K15">
-        <f>SUM(D15:J15)</f>
+        <f t="shared" si="0"/>
         <v>1181.8009999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="1">
+        <f t="shared" si="1"/>
+        <v>6.0538618599916569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -3478,11 +3546,15 @@
         <v>0.35899999999999999</v>
       </c>
       <c r="K16">
-        <f>SUM(D16:J16)</f>
+        <f t="shared" si="0"/>
         <v>147.1689999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="1">
+        <f t="shared" si="1"/>
+        <v>4.6173990446357598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -3516,11 +3588,15 @@
         <v>14.37</v>
       </c>
       <c r="K17">
-        <f>SUM(D17:J17)</f>
+        <f t="shared" si="0"/>
         <v>4323.2709999999979</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="1">
+        <f t="shared" si="1"/>
+        <v>3.368415720411698</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -3554,11 +3630,15 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="K18">
-        <f>SUM(D18:J18)</f>
+        <f t="shared" si="0"/>
         <v>211.71</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="1">
+        <f t="shared" si="1"/>
+        <v>4.65845732369751</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -3592,11 +3672,15 @@
         <v>23.917999999999999</v>
       </c>
       <c r="K19">
-        <f>SUM(D19:J19)</f>
+        <f t="shared" si="0"/>
         <v>4847.8239999999987</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="1">
+        <f t="shared" si="1"/>
+        <v>4.1423094155233366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3630,11 +3714,15 @@
         <v>344.332999999999</v>
       </c>
       <c r="K20">
-        <f>SUM(D20:J20)</f>
+        <f t="shared" si="0"/>
         <v>1829.049999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="1">
+        <f t="shared" si="1"/>
+        <v>5.1956277849156658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -3668,11 +3756,15 @@
         <v>1.8360000000000001</v>
       </c>
       <c r="K21">
-        <f>SUM(D21:J21)</f>
+        <f t="shared" si="0"/>
         <v>1900.16</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="1">
+        <f t="shared" si="1"/>
+        <v>4.4158302458740319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -3706,11 +3798,15 @@
         <v>1632.86</v>
       </c>
       <c r="K22">
-        <f>SUM(D22:J22)</f>
+        <f t="shared" si="0"/>
         <v>25616.658999999891</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0394904737577226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -3744,11 +3840,15 @@
         <v>1903.14</v>
       </c>
       <c r="K23">
-        <f>SUM(D23:J23)</f>
+        <f t="shared" si="0"/>
         <v>14848.150999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="1">
+        <f t="shared" si="1"/>
+        <v>5.6370843076690162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -3782,11 +3882,15 @@
         <v>90.334999999999994</v>
       </c>
       <c r="K24">
-        <f>SUM(D24:J24)</f>
+        <f t="shared" si="0"/>
         <v>2621.36</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="1">
+        <f t="shared" si="1"/>
+        <v>4.8541173284096804</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -3820,11 +3924,15 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <f>SUM(D25:J25)</f>
+        <f t="shared" si="0"/>
         <v>58.482999999999997</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <f t="shared" si="1"/>
+        <v>4.495152437460459</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -3858,11 +3966,15 @@
         <v>0.38600000000000001</v>
       </c>
       <c r="K26">
-        <f>SUM(D26:J26)</f>
+        <f t="shared" si="0"/>
         <v>1076.137999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="1">
+        <f t="shared" si="1"/>
+        <v>5.0332364436531378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -3896,11 +4008,15 @@
         <v>8.0139999999999993</v>
       </c>
       <c r="K27">
-        <f>SUM(D27:J27)</f>
+        <f t="shared" si="0"/>
         <v>1336.8639999999989</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8610225123872</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -3934,11 +4050,15 @@
         <v>301.05</v>
       </c>
       <c r="K28">
-        <f>SUM(D28:J28)</f>
+        <f t="shared" si="0"/>
         <v>3281.2759999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0346438397745281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -3972,11 +4092,15 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <f>SUM(D29:J29)</f>
+        <f t="shared" si="0"/>
         <v>259.517</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5869056747727508</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -4010,11 +4134,15 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <f>SUM(D30:J30)</f>
+        <f t="shared" si="0"/>
         <v>6601.0589999999984</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0195868571997315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -4048,11 +4176,15 @@
         <v>1755.5740000000001</v>
       </c>
       <c r="K31">
-        <f>SUM(D31:J31)</f>
+        <f t="shared" si="0"/>
         <v>2647.648999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="1">
+        <f t="shared" si="1"/>
+        <v>6.0595388588139896</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -4086,11 +4218,15 @@
         <v>532.49900000000002</v>
       </c>
       <c r="K32">
-        <f>SUM(D32:J32)</f>
+        <f t="shared" si="0"/>
         <v>3249.91</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="1">
+        <f t="shared" si="1"/>
+        <v>4.8753042391943158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -4124,11 +4260,15 @@
         <v>79.028999999999996</v>
       </c>
       <c r="K33">
-        <f>SUM(D33:J33)</f>
+        <f t="shared" si="0"/>
         <v>6000.4659999999894</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="1">
+        <f t="shared" si="1"/>
+        <v>3.6295991011364781</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -4162,11 +4302,15 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <f>SUM(D34:J34)</f>
+        <f t="shared" ref="K34:K65" si="2">SUM(D34:J34)</f>
         <v>2.6229999999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="1">
+        <f t="shared" si="1"/>
+        <v>4.4712161646969122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -4200,11 +4344,15 @@
         <v>3.87299999999999</v>
       </c>
       <c r="K35">
-        <f>SUM(D35:J35)</f>
+        <f t="shared" si="2"/>
         <v>132.01599999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="1">
+        <f t="shared" si="1"/>
+        <v>3.779920615682947</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -4238,11 +4386,15 @@
         <v>0.222999999999999</v>
       </c>
       <c r="K36">
-        <f>SUM(D36:J36)</f>
+        <f t="shared" si="2"/>
         <v>1490.598</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="1">
+        <f t="shared" si="1"/>
+        <v>3.7403612509878594</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -4276,11 +4428,15 @@
         <v>939.90200000000004</v>
       </c>
       <c r="K37">
-        <f>SUM(D37:J37)</f>
+        <f t="shared" si="2"/>
         <v>4146.1539999999895</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="1">
+        <f t="shared" si="1"/>
+        <v>5.8615157565300269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -4314,11 +4470,15 @@
         <v>15.331</v>
       </c>
       <c r="K38">
-        <f>SUM(D38:J38)</f>
+        <f t="shared" si="2"/>
         <v>662.54999999999893</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="1">
+        <f t="shared" si="1"/>
+        <v>4.4299750962191506</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -4352,11 +4512,15 @@
         <v>43.628999999999998</v>
       </c>
       <c r="K39">
-        <f>SUM(D39:J39)</f>
+        <f t="shared" si="2"/>
         <v>187.51799999999898</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="1">
+        <f t="shared" si="1"/>
+        <v>5.7295672948730241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -4390,11 +4554,15 @@
         <v>1812.2159999999999</v>
       </c>
       <c r="K40">
-        <f>SUM(D40:J40)</f>
+        <f t="shared" si="2"/>
         <v>4606.8629999999994</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="1">
+        <f t="shared" si="1"/>
+        <v>6.0898225104588519</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -4428,11 +4596,15 @@
         <v>395.46899999999999</v>
       </c>
       <c r="K41">
-        <f>SUM(D41:J41)</f>
+        <f t="shared" si="2"/>
         <v>1003.0329999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" s="1">
+        <f t="shared" si="1"/>
+        <v>6.1127540170662389</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -4466,11 +4638,15 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <f>SUM(D42:J42)</f>
+        <f t="shared" si="2"/>
         <v>383.71599999999899</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9012081852203191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -4504,11 +4680,15 @@
         <v>69.069000000000003</v>
       </c>
       <c r="K43">
-        <f>SUM(D43:J43)</f>
+        <f t="shared" si="2"/>
         <v>924.90300000000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="1">
+        <f t="shared" si="1"/>
+        <v>4.4510581109586633</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -4542,11 +4722,15 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <f>SUM(D44:J44)</f>
+        <f t="shared" si="2"/>
         <v>1177.1599999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="1">
+        <f t="shared" si="1"/>
+        <v>3.632130721397262</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -4580,11 +4764,15 @@
         <v>5.5869999999999997</v>
       </c>
       <c r="K45">
-        <f>SUM(D45:J45)</f>
+        <f t="shared" si="2"/>
         <v>1719.9290000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="1">
+        <f t="shared" si="1"/>
+        <v>3.7869778345501475</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -4618,11 +4806,15 @@
         <v>40.905999999999999</v>
       </c>
       <c r="K46">
-        <f>SUM(D46:J46)</f>
+        <f t="shared" si="2"/>
         <v>243.32500000000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="1">
+        <f t="shared" si="1"/>
+        <v>5.1644796054659396</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -4656,11 +4848,15 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <f>SUM(D47:J47)</f>
+        <f t="shared" si="2"/>
         <v>1704.9469999999992</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2783881258478984</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -4694,11 +4890,15 @@
         <v>0.111</v>
       </c>
       <c r="K48">
-        <f>SUM(D48:J48)</f>
+        <f t="shared" si="2"/>
         <v>3.3980000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3696291936433198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -4732,11 +4932,15 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <f>SUM(D49:J49)</f>
+        <f t="shared" si="2"/>
         <v>31.003</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2716833854788243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -4770,11 +4974,15 @@
         <v>170.52</v>
       </c>
       <c r="K50">
-        <f>SUM(D50:J50)</f>
+        <f t="shared" si="2"/>
         <v>2584.942</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="1">
+        <f t="shared" si="1"/>
+        <v>5.2028610313113415</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -4808,11 +5016,15 @@
         <v>5496.616</v>
       </c>
       <c r="K51">
-        <f>SUM(D51:J51)</f>
+        <f t="shared" si="2"/>
         <v>23200.074999999888</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="1">
+        <f t="shared" si="1"/>
+        <v>6.0812910303091705</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -4846,11 +5058,15 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <f>SUM(D52:J52)</f>
+        <f t="shared" si="2"/>
         <v>261.77800000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8693778697980727</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -4884,11 +5100,15 @@
         <v>501.37599999999998</v>
       </c>
       <c r="K53">
-        <f>SUM(D53:J53)</f>
+        <f t="shared" si="2"/>
         <v>1075.596</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="1">
+        <f t="shared" si="1"/>
+        <v>5.1752498149862962</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -4922,11 +5142,15 @@
         <v>1313.867</v>
       </c>
       <c r="K54">
-        <f>SUM(D54:J54)</f>
+        <f t="shared" si="2"/>
         <v>4398.3539999999994</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" s="1">
+        <f t="shared" si="1"/>
+        <v>5.8094953248419747</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -4960,11 +5184,15 @@
         <v>24904.609</v>
       </c>
       <c r="K55">
-        <f>SUM(D55:J55)</f>
+        <f t="shared" si="2"/>
         <v>81120.342000000004</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55" s="1">
+        <f t="shared" si="1"/>
+        <v>6.0324590840605667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -4998,11 +5226,15 @@
         <v>184.68600000000001</v>
       </c>
       <c r="K56">
-        <f>SUM(D56:J56)</f>
+        <f t="shared" si="2"/>
         <v>1365.883</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56" s="1">
+        <f t="shared" si="1"/>
+        <v>5.0881115000333113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -5036,11 +5268,15 @@
         <v>1055.931</v>
       </c>
       <c r="K57">
-        <f>SUM(D57:J57)</f>
+        <f t="shared" si="2"/>
         <v>4703.8330000000005</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57" s="1">
+        <f t="shared" si="1"/>
+        <v>5.7844334609668326</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -5074,11 +5310,15 @@
         <v>6937.076</v>
       </c>
       <c r="K58">
-        <f>SUM(D58:J58)</f>
+        <f t="shared" si="2"/>
         <v>12587.45999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58" s="1">
+        <f t="shared" si="1"/>
+        <v>6.1555332052693723</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>68</v>
       </c>
@@ -5112,11 +5352,15 @@
         <v>1.349</v>
       </c>
       <c r="K59">
-        <f>SUM(D59:J59)</f>
+        <f t="shared" si="2"/>
         <v>6.4089999999999998</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" s="1">
+        <f t="shared" si="1"/>
+        <v>6.2104852551100009</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -5150,11 +5394,15 @@
         <v>7.58</v>
       </c>
       <c r="K60">
-        <f>SUM(D60:J60)</f>
+        <f t="shared" si="2"/>
         <v>805.33499999999901</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5955794793471041</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -5188,11 +5436,15 @@
         <v>2.0390000000000001</v>
       </c>
       <c r="K61">
-        <f>SUM(D61:J61)</f>
+        <f t="shared" si="2"/>
         <v>599.053</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8502653354544587</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -5226,11 +5478,15 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <f>SUM(D62:J62)</f>
+        <f t="shared" si="2"/>
         <v>432.43000000000006</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5403371643965493</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -5264,11 +5520,15 @@
         <v>50.177</v>
       </c>
       <c r="K63">
-        <f>SUM(D63:J63)</f>
+        <f t="shared" si="2"/>
         <v>4080.3250000000007</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" s="1">
+        <f t="shared" si="1"/>
+        <v>4.3104985509732678</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -5302,11 +5562,15 @@
         <v>2493.5160000000001</v>
       </c>
       <c r="K64">
-        <f>SUM(D64:J64)</f>
+        <f t="shared" si="2"/>
         <v>7335.5859999999993</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64" s="1">
+        <f t="shared" si="1"/>
+        <v>5.8826778119703054</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -5340,11 +5604,15 @@
         <v>22.805</v>
       </c>
       <c r="K65">
-        <f>SUM(D65:J65)</f>
+        <f t="shared" si="2"/>
         <v>1155.327</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8936344428893288</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>75</v>
       </c>
@@ -5378,11 +5646,15 @@
         <v>369.327</v>
       </c>
       <c r="K66">
-        <f>SUM(D66:J66)</f>
+        <f t="shared" ref="K66:K97" si="3">SUM(D66:J66)</f>
         <v>1334.283999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" s="1">
+        <f t="shared" si="1"/>
+        <v>5.1578404597521983</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -5416,11 +5688,15 @@
         <v>523.79599999999903</v>
       </c>
       <c r="K67">
-        <f>SUM(D67:J67)</f>
+        <f t="shared" si="3"/>
         <v>25710.34</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67" s="1">
+        <f t="shared" ref="L67:L130" si="4">(D67*1+E67*2+F67*3+G67*4+H67*5+I67*6+J67*7)/K67</f>
+        <v>5.4833186959021152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -5454,11 +5730,15 @@
         <v>44.859000000000002</v>
       </c>
       <c r="K68">
-        <f>SUM(D68:J68)</f>
+        <f t="shared" si="3"/>
         <v>1225.8129999999996</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="1">
+        <f t="shared" si="4"/>
+        <v>4.8938190409140727</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -5492,11 +5772,15 @@
         <v>339.113</v>
       </c>
       <c r="K69">
-        <f>SUM(D69:J69)</f>
+        <f t="shared" si="3"/>
         <v>373.33100000000002</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69" s="1">
+        <f t="shared" si="4"/>
+        <v>6.8939761230650545</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -5530,11 +5814,15 @@
         <v>2044.039</v>
       </c>
       <c r="K70">
-        <f>SUM(D70:J70)</f>
+        <f t="shared" si="3"/>
         <v>2344.5079999999998</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70" s="1">
+        <f t="shared" si="4"/>
+        <v>6.8374874387291484</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>80</v>
       </c>
@@ -5568,11 +5856,15 @@
         <v>1.9</v>
       </c>
       <c r="K71">
-        <f>SUM(D71:J71)</f>
+        <f t="shared" si="3"/>
         <v>19.924999999999997</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71" s="1">
+        <f t="shared" si="4"/>
+        <v>4.9817816813048932</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -5606,11 +5898,15 @@
         <v>2033.4590000000001</v>
       </c>
       <c r="K72">
-        <f>SUM(D72:J72)</f>
+        <f t="shared" si="3"/>
         <v>17784.133999999998</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72" s="1">
+        <f t="shared" si="4"/>
+        <v>5.7676838242446902</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -5644,11 +5940,15 @@
         <v>30.776</v>
       </c>
       <c r="K73">
-        <f>SUM(D73:J73)</f>
+        <f t="shared" si="3"/>
         <v>855.25600000000009</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73" s="1">
+        <f t="shared" si="4"/>
+        <v>3.7706663268074112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>83</v>
       </c>
@@ -5682,11 +5982,15 @@
         <v>3.7949999999999999</v>
       </c>
       <c r="K74">
-        <f>SUM(D74:J74)</f>
+        <f t="shared" si="3"/>
         <v>30.08499999999998</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74" s="1">
+        <f t="shared" si="4"/>
+        <v>5.2381585507728099</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -5720,11 +6024,15 @@
         <v>27335.884999999998</v>
       </c>
       <c r="K75">
-        <f>SUM(D75:J75)</f>
+        <f t="shared" si="3"/>
         <v>29872.571</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75" s="1">
+        <f t="shared" si="4"/>
+        <v>6.83913366546187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>85</v>
       </c>
@@ -5758,11 +6066,15 @@
         <v>1.6E-2</v>
       </c>
       <c r="K76">
-        <f>SUM(D76:J76)</f>
+        <f t="shared" si="3"/>
         <v>41.661999999999992</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76" s="1">
+        <f t="shared" si="4"/>
+        <v>4.3768662090154091</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>86</v>
       </c>
@@ -5796,11 +6108,15 @@
         <v>5635.0509999999904</v>
       </c>
       <c r="K77">
-        <f>SUM(D77:J77)</f>
+        <f t="shared" si="3"/>
         <v>43071.658999999891</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77" s="1">
+        <f t="shared" si="4"/>
+        <v>5.0403426763756647</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -5834,11 +6150,15 @@
         <v>21.504000000000001</v>
       </c>
       <c r="K78">
-        <f>SUM(D78:J78)</f>
+        <f t="shared" si="3"/>
         <v>1078.7289999999998</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78" s="1">
+        <f t="shared" si="4"/>
+        <v>3.7633835745585786</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>88</v>
       </c>
@@ -5872,11 +6192,15 @@
         <v>17.608999999999899</v>
       </c>
       <c r="K79">
-        <f>SUM(D79:J79)</f>
+        <f t="shared" si="3"/>
         <v>127.4879999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79" s="1">
+        <f t="shared" si="4"/>
+        <v>4.4127525727911632</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>89</v>
       </c>
@@ -5910,11 +6234,15 @@
         <v>266.24200000000002</v>
       </c>
       <c r="K80">
-        <f>SUM(D80:J80)</f>
+        <f t="shared" si="3"/>
         <v>1571.7939999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80" s="1">
+        <f t="shared" si="4"/>
+        <v>5.0125709857653105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>90</v>
       </c>
@@ -5948,11 +6276,15 @@
         <v>48.079000000000001</v>
       </c>
       <c r="K81">
-        <f>SUM(D81:J81)</f>
+        <f t="shared" si="3"/>
         <v>2435.306</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81" s="1">
+        <f t="shared" si="4"/>
+        <v>4.1235922713613817</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -5986,11 +6318,15 @@
         <v>389.43200000000002</v>
       </c>
       <c r="K82">
-        <f>SUM(D82:J82)</f>
+        <f t="shared" si="3"/>
         <v>1485.587</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82" s="1">
+        <f t="shared" si="4"/>
+        <v>5.3804280732128111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>92</v>
       </c>
@@ -6024,11 +6360,15 @@
         <v>5.4909999999999997</v>
       </c>
       <c r="K83">
-        <f>SUM(D83:J83)</f>
+        <f t="shared" si="3"/>
         <v>242.67700000000002</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83" s="1">
+        <f t="shared" si="4"/>
+        <v>5.7716635692710874</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>93</v>
       </c>
@@ -6062,11 +6402,15 @@
         <v>4.5380000000000003</v>
       </c>
       <c r="K84">
-        <f>SUM(D84:J84)</f>
+        <f t="shared" si="3"/>
         <v>48.584999999999994</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84" s="1">
+        <f t="shared" si="4"/>
+        <v>4.0869815786765464</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>94</v>
       </c>
@@ -6100,11 +6444,15 @@
         <v>43.377000000000002</v>
       </c>
       <c r="K85">
-        <f>SUM(D85:J85)</f>
+        <f t="shared" si="3"/>
         <v>272.47800000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85" s="1">
+        <f t="shared" si="4"/>
+        <v>4.6623984321669996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>95</v>
       </c>
@@ -6138,11 +6486,15 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <f>SUM(D86:J86)</f>
+        <f t="shared" si="3"/>
         <v>6548.6270000000004</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86" s="1">
+        <f t="shared" si="4"/>
+        <v>3.3185227987485004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -6176,11 +6528,15 @@
         <v>11.633999999999901</v>
       </c>
       <c r="K87">
-        <f>SUM(D87:J87)</f>
+        <f t="shared" si="3"/>
         <v>48.796999999999898</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87" s="1">
+        <f t="shared" si="4"/>
+        <v>6.1852982765333913</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>97</v>
       </c>
@@ -6214,11 +6570,15 @@
         <v>140.40899999999999</v>
       </c>
       <c r="K88">
-        <f>SUM(D88:J88)</f>
+        <f t="shared" si="3"/>
         <v>982.18999999999994</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88" s="1">
+        <f t="shared" si="4"/>
+        <v>5.6350706075199302</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -6252,11 +6612,15 @@
         <v>161.47399999999999</v>
       </c>
       <c r="K89">
-        <f>SUM(D89:J89)</f>
+        <f t="shared" si="3"/>
         <v>363.709</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89" s="1">
+        <f t="shared" si="4"/>
+        <v>6.2752942599715702</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>99</v>
       </c>
@@ -6290,11 +6654,15 @@
         <v>27.041</v>
       </c>
       <c r="K90">
-        <f>SUM(D90:J90)</f>
+        <f t="shared" si="3"/>
         <v>229.91799999999998</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90" s="1">
+        <f t="shared" si="4"/>
+        <v>5.7695526231091092</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>100</v>
       </c>
@@ -6328,11 +6696,15 @@
         <v>45.903999999999897</v>
       </c>
       <c r="K91">
-        <f>SUM(D91:J91)</f>
+        <f t="shared" si="3"/>
         <v>5004.4209999999985</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91" s="1">
+        <f t="shared" si="4"/>
+        <v>3.343159778124182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>101</v>
       </c>
@@ -6366,11 +6738,15 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <f>SUM(D92:J92)</f>
+        <f t="shared" si="3"/>
         <v>1015.5360000000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92" s="1">
+        <f t="shared" si="4"/>
+        <v>4.3244769264703562</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>102</v>
       </c>
@@ -6404,11 +6780,15 @@
         <v>215.976</v>
       </c>
       <c r="K93">
-        <f>SUM(D93:J93)</f>
+        <f t="shared" si="3"/>
         <v>2123.92</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93" s="1">
+        <f t="shared" si="4"/>
+        <v>5.7160104900372897</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>103</v>
       </c>
@@ -6442,11 +6822,15 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <f>SUM(D94:J94)</f>
+        <f t="shared" si="3"/>
         <v>6.7039999999999997</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>104</v>
       </c>
@@ -6480,11 +6864,15 @@
         <v>1.6379999999999999</v>
       </c>
       <c r="K95">
-        <f>SUM(D95:J95)</f>
+        <f t="shared" si="3"/>
         <v>1660.4289999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95" s="1">
+        <f t="shared" si="4"/>
+        <v>3.4851432973044925</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>105</v>
       </c>
@@ -6518,11 +6906,15 @@
         <v>8.0609999999999999</v>
       </c>
       <c r="K96">
-        <f>SUM(D96:J96)</f>
+        <f t="shared" si="3"/>
         <v>66.002999999999986</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96" s="1">
+        <f t="shared" si="4"/>
+        <v>5.6820750571943712</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>106</v>
       </c>
@@ -6556,11 +6948,15 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <f>SUM(D97:J97)</f>
+        <f t="shared" si="3"/>
         <v>2736.6350000000002</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97" s="1">
+        <f t="shared" si="4"/>
+        <v>3.4073294392566051</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>107</v>
       </c>
@@ -6594,11 +6990,15 @@
         <v>3.5659999999999998</v>
       </c>
       <c r="K98">
-        <f>SUM(D98:J98)</f>
+        <f t="shared" ref="K98:K129" si="5">SUM(D98:J98)</f>
         <v>8.9779999999999998</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98" s="1">
+        <f t="shared" si="4"/>
+        <v>5.2594118957451546</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>108</v>
       </c>
@@ -6632,11 +7032,15 @@
         <v>461.96199999999999</v>
       </c>
       <c r="K99">
-        <f>SUM(D99:J99)</f>
+        <f t="shared" si="5"/>
         <v>24998.539999999986</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99" s="1">
+        <f t="shared" si="4"/>
+        <v>3.8232813196290674</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>109</v>
       </c>
@@ -6670,11 +7074,15 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <f>SUM(D100:J100)</f>
+        <f t="shared" si="5"/>
         <v>44.7869999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100" s="1">
+        <f t="shared" si="4"/>
+        <v>4.9302476164958557</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>110</v>
       </c>
@@ -6708,11 +7116,15 @@
         <v>271.09300000000002</v>
       </c>
       <c r="K101">
-        <f>SUM(D101:J101)</f>
+        <f t="shared" si="5"/>
         <v>1586.349999999999</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L101" s="1">
+        <f t="shared" si="4"/>
+        <v>5.234908437608345</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>111</v>
       </c>
@@ -6746,11 +7158,15 @@
         <v>5.1509999999999998</v>
       </c>
       <c r="K102">
-        <f>SUM(D102:J102)</f>
+        <f t="shared" si="5"/>
         <v>5.1509999999999998</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L102" s="1">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000009</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>112</v>
       </c>
@@ -6784,11 +7200,15 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <f>SUM(D103:J103)</f>
+        <f t="shared" si="5"/>
         <v>594.32799999999997</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L103" s="1">
+        <f t="shared" si="4"/>
+        <v>3.3905368752607989</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>113</v>
       </c>
@@ -6822,11 +7242,15 @@
         <v>141.81100000000001</v>
       </c>
       <c r="K104">
-        <f>SUM(D104:J104)</f>
+        <f t="shared" si="5"/>
         <v>561.29600000000005</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L104" s="1">
+        <f t="shared" si="4"/>
+        <v>5.1360137966420565</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>114</v>
       </c>
@@ -6860,11 +7284,15 @@
         <v>69.341999999999999</v>
       </c>
       <c r="K105">
-        <f>SUM(D105:J105)</f>
+        <f t="shared" si="5"/>
         <v>1674.9229999999998</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L105" s="1">
+        <f t="shared" si="4"/>
+        <v>3.8064084139987333</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>115</v>
       </c>
@@ -6898,11 +7326,15 @@
         <v>0.156</v>
       </c>
       <c r="K106">
-        <f>SUM(D106:J106)</f>
+        <f t="shared" si="5"/>
         <v>847.378999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L106" s="1">
+        <f t="shared" si="4"/>
+        <v>3.7298918193629986</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>116</v>
       </c>
@@ -6936,11 +7368,15 @@
         <v>146.274</v>
       </c>
       <c r="K107">
-        <f>SUM(D107:J107)</f>
+        <f t="shared" si="5"/>
         <v>1367.0059999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L107" s="1">
+        <f t="shared" si="4"/>
+        <v>5.0401475926221249</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>117</v>
       </c>
@@ -6974,11 +7410,15 @@
         <v>6.5309999999999997</v>
       </c>
       <c r="K108">
-        <f>SUM(D108:J108)</f>
+        <f t="shared" si="5"/>
         <v>2795.3239999999987</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L108" s="1">
+        <f t="shared" si="4"/>
+        <v>4.8627790553080787</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>118</v>
       </c>
@@ -7012,11 +7452,15 @@
         <v>16.895</v>
       </c>
       <c r="K109">
-        <f>SUM(D109:J109)</f>
+        <f t="shared" si="5"/>
         <v>19.491</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L109" s="1">
+        <f t="shared" si="4"/>
+        <v>6.8668103227130475</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>119</v>
       </c>
@@ -7050,11 +7494,15 @@
         <v>9.7289999999999992</v>
       </c>
       <c r="K110">
-        <f>SUM(D110:J110)</f>
+        <f t="shared" si="5"/>
         <v>2728.7279999999992</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L110" s="1">
+        <f t="shared" si="4"/>
+        <v>3.9602349519629652</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>120</v>
       </c>
@@ -7088,11 +7536,15 @@
         <v>1239.0889999999999</v>
       </c>
       <c r="K111">
-        <f>SUM(D111:J111)</f>
+        <f t="shared" si="5"/>
         <v>15740.37</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L111" s="1">
+        <f t="shared" si="4"/>
+        <v>5.8757779518524655</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>121</v>
       </c>
@@ -7126,11 +7578,15 @@
         <v>12.356999999999999</v>
       </c>
       <c r="K112">
-        <f>SUM(D112:J112)</f>
+        <f t="shared" si="5"/>
         <v>197.73699999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L112" s="1">
+        <f t="shared" si="4"/>
+        <v>4.6369521131604108</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>122</v>
       </c>
@@ -7164,11 +7620,15 @@
         <v>41.811999999999998</v>
       </c>
       <c r="K113">
-        <f>SUM(D113:J113)</f>
+        <f t="shared" si="5"/>
         <v>4513.494999999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L113" s="1">
+        <f t="shared" si="4"/>
+        <v>4.2634124996261225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>123</v>
       </c>
@@ -7202,11 +7662,15 @@
         <v>117.863</v>
       </c>
       <c r="K114">
-        <f>SUM(D114:J114)</f>
+        <f t="shared" si="5"/>
         <v>3331.8239999999996</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L114" s="1">
+        <f t="shared" si="4"/>
+        <v>3.8346569326591085</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>124</v>
       </c>
@@ -7240,11 +7704,15 @@
         <v>361.197</v>
       </c>
       <c r="K115">
-        <f>SUM(D115:J115)</f>
+        <f t="shared" si="5"/>
         <v>6664.3139999999994</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L115" s="1">
+        <f t="shared" si="4"/>
+        <v>3.612206897814239</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>125</v>
       </c>
@@ -7278,11 +7746,15 @@
         <v>6.8650000000000002</v>
       </c>
       <c r="K116">
-        <f>SUM(D116:J116)</f>
+        <f t="shared" si="5"/>
         <v>191.24900000000002</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L116" s="1">
+        <f t="shared" si="4"/>
+        <v>3.6100842357345648</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>126</v>
       </c>
@@ -7316,11 +7788,15 @@
         <v>597.35599999999999</v>
       </c>
       <c r="K117">
-        <f>SUM(D117:J117)</f>
+        <f t="shared" si="5"/>
         <v>1437.6690000000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L117" s="1">
+        <f t="shared" si="4"/>
+        <v>5.7915625919457119</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>127</v>
       </c>
@@ -7354,11 +7830,15 @@
         <v>38.095999999999997</v>
       </c>
       <c r="K118">
-        <f>SUM(D118:J118)</f>
+        <f t="shared" si="5"/>
         <v>2460.98</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L118" s="1">
+        <f t="shared" si="4"/>
+        <v>5.880336695137709</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>128</v>
       </c>
@@ -7392,11 +7872,15 @@
         <v>0</v>
       </c>
       <c r="K119">
-        <f>SUM(D119:J119)</f>
+        <f t="shared" si="5"/>
         <v>167.2409999999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L119" s="1">
+        <f t="shared" si="4"/>
+        <v>2.4639352790284677</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>129</v>
       </c>
@@ -7430,11 +7914,15 @@
         <v>137.28800000000001</v>
       </c>
       <c r="K120">
-        <f>SUM(D120:J120)</f>
+        <f t="shared" si="5"/>
         <v>2499.235999999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L120" s="1">
+        <f t="shared" si="4"/>
+        <v>4.3082934144674612</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>130</v>
       </c>
@@ -7468,11 +7956,15 @@
         <v>480.26900000000001</v>
       </c>
       <c r="K121">
-        <f>SUM(D121:J121)</f>
+        <f t="shared" si="5"/>
         <v>4740.7120000000004</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L121" s="1">
+        <f t="shared" si="4"/>
+        <v>5.4766807180018526</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>131</v>
       </c>
@@ -7506,11 +7998,15 @@
         <v>1280.527</v>
       </c>
       <c r="K122">
-        <f>SUM(D122:J122)</f>
+        <f t="shared" si="5"/>
         <v>2868.4210000000003</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L122" s="1">
+        <f t="shared" si="4"/>
+        <v>5.9009538697422732</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>132</v>
       </c>
@@ -7544,11 +8040,15 @@
         <v>11697.316999999999</v>
       </c>
       <c r="K123">
-        <f>SUM(D123:J123)</f>
+        <f t="shared" si="5"/>
         <v>24915.449000000001</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L123" s="1">
+        <f t="shared" si="4"/>
+        <v>5.979394671956344</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>133</v>
       </c>
@@ -7582,11 +8082,15 @@
         <v>785.49300000000005</v>
       </c>
       <c r="K124">
-        <f>SUM(D124:J124)</f>
+        <f t="shared" si="5"/>
         <v>1945.9</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L124" s="1">
+        <f t="shared" si="4"/>
+        <v>5.8426969525669357</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>134</v>
       </c>
@@ -7620,11 +8124,15 @@
         <v>18754.624</v>
       </c>
       <c r="K125">
-        <f>SUM(D125:J125)</f>
+        <f t="shared" si="5"/>
         <v>62726.436999999991</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L125" s="1">
+        <f t="shared" si="4"/>
+        <v>5.8249121817647644</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>135</v>
       </c>
@@ -7658,11 +8166,15 @@
         <v>5232.7359999999999</v>
       </c>
       <c r="K126">
-        <f>SUM(D126:J126)</f>
+        <f t="shared" si="5"/>
         <v>50281.6539999999</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L126" s="1">
+        <f t="shared" si="4"/>
+        <v>4.7243816800457701</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>136</v>
       </c>
@@ -7696,11 +8208,15 @@
         <v>48.606000000000002</v>
       </c>
       <c r="K127">
-        <f>SUM(D127:J127)</f>
+        <f t="shared" si="5"/>
         <v>319.84399999999999</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L127" s="1">
+        <f t="shared" si="4"/>
+        <v>4.3520028513900524</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>137</v>
       </c>
@@ -7734,11 +8250,15 @@
         <v>0</v>
       </c>
       <c r="K128">
-        <f>SUM(D128:J128)</f>
+        <f t="shared" si="5"/>
         <v>5.6130000000000004</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L128" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0726884019241045</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>138</v>
       </c>
@@ -7772,11 +8292,15 @@
         <v>113.207999999999</v>
       </c>
       <c r="K129">
-        <f>SUM(D129:J129)</f>
+        <f t="shared" si="5"/>
         <v>2786.6389999999897</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L129" s="1">
+        <f t="shared" si="4"/>
+        <v>3.8591342473854722</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>139</v>
       </c>
@@ -7810,11 +8334,15 @@
         <v>882.48299999999995</v>
       </c>
       <c r="K130">
-        <f>SUM(D130:J130)</f>
+        <f t="shared" ref="K130:K161" si="6">SUM(D130:J130)</f>
         <v>2826.8789999999999</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L130" s="1">
+        <f t="shared" si="4"/>
+        <v>5.8594775368878542</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>140</v>
       </c>
@@ -7848,11 +8376,15 @@
         <v>0</v>
       </c>
       <c r="K131">
-        <f>SUM(D131:J131)</f>
+        <f t="shared" si="6"/>
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L131" s="1">
+        <f t="shared" ref="L131:L165" si="7">(D131*1+E131*2+F131*3+G131*4+H131*5+I131*6+J131*7)/K131</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>141</v>
       </c>
@@ -7886,11 +8418,15 @@
         <v>80.978999999999999</v>
       </c>
       <c r="K132">
-        <f>SUM(D132:J132)</f>
+        <f t="shared" si="6"/>
         <v>280.267</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L132" s="1">
+        <f t="shared" si="7"/>
+        <v>4.5252241612462401</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>142</v>
       </c>
@@ -7924,11 +8460,15 @@
         <v>614.596</v>
       </c>
       <c r="K133">
-        <f>SUM(D133:J133)</f>
+        <f t="shared" si="6"/>
         <v>2261.259</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L133" s="1">
+        <f t="shared" si="7"/>
+        <v>5.8382666470315874</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>143</v>
       </c>
@@ -7962,11 +8502,15 @@
         <v>445.23099999999999</v>
       </c>
       <c r="K134">
-        <f>SUM(D134:J134)</f>
+        <f t="shared" si="6"/>
         <v>918.00299999999993</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L134" s="1">
+        <f t="shared" si="7"/>
+        <v>5.9808410212167074</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>144</v>
       </c>
@@ -8000,11 +8544,15 @@
         <v>0</v>
       </c>
       <c r="K135">
-        <f>SUM(D135:J135)</f>
+        <f t="shared" si="6"/>
         <v>822.44499999999891</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L135" s="1">
+        <f t="shared" si="7"/>
+        <v>3.2891889427256529</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>145</v>
       </c>
@@ -8038,11 +8586,15 @@
         <v>535.30600000000004</v>
       </c>
       <c r="K136">
-        <f>SUM(D136:J136)</f>
+        <f t="shared" si="6"/>
         <v>3907.4010000000003</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L136" s="1">
+        <f t="shared" si="7"/>
+        <v>4.9890732996178278</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>146</v>
       </c>
@@ -8076,11 +8628,15 @@
         <v>22.475999999999999</v>
       </c>
       <c r="K137">
-        <f>SUM(D137:J137)</f>
+        <f t="shared" si="6"/>
         <v>52.601999999999997</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L137" s="1">
+        <f t="shared" si="7"/>
+        <v>6.0297897418349109</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>147</v>
       </c>
@@ -8114,11 +8670,15 @@
         <v>0</v>
       </c>
       <c r="K138">
-        <f>SUM(D138:J138)</f>
+        <f t="shared" si="6"/>
         <v>100.208</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L138" s="1">
+        <f t="shared" si="7"/>
+        <v>3.4127115599552931</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>148</v>
       </c>
@@ -8152,11 +8712,15 @@
         <v>2669.4639999999999</v>
       </c>
       <c r="K139">
-        <f>SUM(D139:J139)</f>
+        <f t="shared" si="6"/>
         <v>8471.3749999999891</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L139" s="1">
+        <f t="shared" si="7"/>
+        <v>5.7442282982396611</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>149</v>
       </c>
@@ -8190,11 +8754,15 @@
         <v>211.46899999999999</v>
       </c>
       <c r="K140">
-        <f>SUM(D140:J140)</f>
+        <f t="shared" si="6"/>
         <v>3853.0589999999997</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L140" s="1">
+        <f t="shared" si="7"/>
+        <v>4.7289621051740971</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>150</v>
       </c>
@@ -8228,11 +8796,15 @@
         <v>1.8839999999999999</v>
       </c>
       <c r="K141">
-        <f>SUM(D141:J141)</f>
+        <f t="shared" si="6"/>
         <v>3525.0389999999989</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L141" s="1">
+        <f t="shared" si="7"/>
+        <v>3.9477568900656141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>151</v>
       </c>
@@ -8266,11 +8838,15 @@
         <v>0</v>
       </c>
       <c r="K142">
-        <f>SUM(D142:J142)</f>
+        <f t="shared" si="6"/>
         <v>0.91700000000000004</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L142" s="1">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>152</v>
       </c>
@@ -8304,11 +8880,15 @@
         <v>0</v>
       </c>
       <c r="K143">
-        <f>SUM(D143:J143)</f>
+        <f t="shared" si="6"/>
         <v>506.04499999999888</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L143" s="1">
+        <f t="shared" si="7"/>
+        <v>3.7798021915047091</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>153</v>
       </c>
@@ -8342,11 +8922,15 @@
         <v>797.39499999999998</v>
       </c>
       <c r="K144">
-        <f>SUM(D144:J144)</f>
+        <f t="shared" si="6"/>
         <v>3938.9679999999998</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L144" s="1">
+        <f t="shared" si="7"/>
+        <v>5.5045641396426683</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>154</v>
       </c>
@@ -8380,11 +8964,15 @@
         <v>741.29399999999998</v>
       </c>
       <c r="K145">
-        <f>SUM(D145:J145)</f>
+        <f t="shared" si="6"/>
         <v>1928.610999999999</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L145" s="1">
+        <f t="shared" si="7"/>
+        <v>6.2729161038695738</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>155</v>
       </c>
@@ -8418,11 +9006,15 @@
         <v>0</v>
       </c>
       <c r="K146">
-        <f>SUM(D146:J146)</f>
+        <f t="shared" si="6"/>
         <v>26.887999999999998</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L146" s="1">
+        <f t="shared" si="7"/>
+        <v>5.5511752454626597</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>156</v>
       </c>
@@ -8456,11 +9048,15 @@
         <v>48.188999999999901</v>
       </c>
       <c r="K147">
-        <f>SUM(D147:J147)</f>
+        <f t="shared" si="6"/>
         <v>121.4669999999999</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L147" s="1">
+        <f t="shared" si="7"/>
+        <v>5.7608815563074733</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>157</v>
       </c>
@@ -8494,11 +9090,15 @@
         <v>252.93799999999999</v>
       </c>
       <c r="K148">
-        <f>SUM(D148:J148)</f>
+        <f t="shared" si="6"/>
         <v>822.35799999999892</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L148" s="1">
+        <f t="shared" si="7"/>
+        <v>5.1933087536085258</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>158</v>
       </c>
@@ -8532,11 +9132,15 @@
         <v>35.32</v>
       </c>
       <c r="K149">
-        <f>SUM(D149:J149)</f>
+        <f t="shared" si="6"/>
         <v>7465.6489999999994</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L149" s="1">
+        <f t="shared" si="7"/>
+        <v>4.091896632161518</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>159</v>
       </c>
@@ -8570,11 +9174,15 @@
         <v>2205.5729999999999</v>
       </c>
       <c r="K150">
-        <f>SUM(D150:J150)</f>
+        <f t="shared" si="6"/>
         <v>8297.9539999999997</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L150" s="1">
+        <f t="shared" si="7"/>
+        <v>5.5034273508867368</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>160</v>
       </c>
@@ -8608,11 +9216,15 @@
         <v>0.54100000000000004</v>
       </c>
       <c r="K151">
-        <f>SUM(D151:J151)</f>
+        <f t="shared" si="6"/>
         <v>627.21899999999994</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L151" s="1">
+        <f t="shared" si="7"/>
+        <v>4.7401274514962077</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>161</v>
       </c>
@@ -8646,11 +9258,15 @@
         <v>6.8379999999999903</v>
       </c>
       <c r="K152">
-        <f>SUM(D152:J152)</f>
+        <f t="shared" si="6"/>
         <v>902.74199999999996</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L152" s="1">
+        <f t="shared" si="7"/>
+        <v>3.9396804402586785</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>162</v>
       </c>
@@ -8684,11 +9300,15 @@
         <v>1404.271</v>
       </c>
       <c r="K153">
-        <f>SUM(D153:J153)</f>
+        <f t="shared" si="6"/>
         <v>3688.4319999999998</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L153" s="1">
+        <f t="shared" si="7"/>
+        <v>5.8902566185305849</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>163</v>
       </c>
@@ -8722,11 +9342,15 @@
         <v>146.38999999999999</v>
       </c>
       <c r="K154">
-        <f>SUM(D154:J154)</f>
+        <f t="shared" si="6"/>
         <v>686.73299999999881</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L154" s="1">
+        <f t="shared" si="7"/>
+        <v>4.386549066376598</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>164</v>
       </c>
@@ -8760,11 +9384,15 @@
         <v>180.148</v>
       </c>
       <c r="K155">
-        <f>SUM(D155:J155)</f>
+        <f t="shared" si="6"/>
         <v>761.46799999999996</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L155" s="1">
+        <f t="shared" si="7"/>
+        <v>5.3159778217863396</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>165</v>
       </c>
@@ -8798,11 +9426,15 @@
         <v>2378.3539999999998</v>
       </c>
       <c r="K156">
-        <f>SUM(D156:J156)</f>
+        <f t="shared" si="6"/>
         <v>36367.640999999894</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L156" s="1">
+        <f t="shared" si="7"/>
+        <v>4.9760535196660127</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>166</v>
       </c>
@@ -8836,11 +9468,15 @@
         <v>141.83000000000001</v>
       </c>
       <c r="K157">
-        <f>SUM(D157:J157)</f>
+        <f t="shared" si="6"/>
         <v>1186.8029999999999</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L157" s="1">
+        <f t="shared" si="7"/>
+        <v>5.884012763702148</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>167</v>
       </c>
@@ -8874,11 +9510,15 @@
         <v>16892.561000000002</v>
       </c>
       <c r="K158">
-        <f>SUM(D158:J158)</f>
+        <f t="shared" si="6"/>
         <v>71087.975000000006</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L158" s="1">
+        <f t="shared" si="7"/>
+        <v>5.5315847019133688</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>168</v>
       </c>
@@ -8912,11 +9552,15 @@
         <v>917.21400000000006</v>
       </c>
       <c r="K159">
-        <f>SUM(D159:J159)</f>
+        <f t="shared" si="6"/>
         <v>2730.7580000000003</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L159" s="1">
+        <f t="shared" si="7"/>
+        <v>5.6979695747481101</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>169</v>
       </c>
@@ -8950,11 +9594,15 @@
         <v>0</v>
       </c>
       <c r="K160">
-        <f>SUM(D160:J160)</f>
+        <f t="shared" si="6"/>
         <v>415.07499999999902</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L160" s="1">
+        <f t="shared" si="7"/>
+        <v>3.4769595856170583</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>170</v>
       </c>
@@ -8988,11 +9636,15 @@
         <v>7091.326</v>
       </c>
       <c r="K161">
-        <f>SUM(D161:J161)</f>
+        <f t="shared" si="6"/>
         <v>11598.314999999999</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L161" s="1">
+        <f t="shared" si="7"/>
+        <v>6.2436576347512549</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>171</v>
       </c>
@@ -9026,11 +9678,15 @@
         <v>180.32499999999999</v>
       </c>
       <c r="K162">
-        <f>SUM(D162:J162)</f>
+        <f t="shared" ref="K162:K193" si="8">SUM(D162:J162)</f>
         <v>2279.0249999999996</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L162" s="1">
+        <f t="shared" si="7"/>
+        <v>5.2554342317438385</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>172</v>
       </c>
@@ -9064,11 +9720,15 @@
         <v>0</v>
       </c>
       <c r="K163">
-        <f>SUM(D163:J163)</f>
+        <f t="shared" si="8"/>
         <v>106.612999999999</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L163" s="1">
+        <f t="shared" si="7"/>
+        <v>3.1448322437226244</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>173</v>
       </c>
@@ -9102,11 +9762,15 @@
         <v>5.67</v>
       </c>
       <c r="K164">
-        <f>SUM(D164:J164)</f>
+        <f t="shared" si="8"/>
         <v>3072.0229999999988</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L164" s="1">
+        <f t="shared" si="7"/>
+        <v>3.1937654763652485</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>174</v>
       </c>
@@ -9140,8 +9804,12 @@
         <v>0.23599999999999999</v>
       </c>
       <c r="K165">
-        <f>SUM(D165:J165)</f>
+        <f t="shared" si="8"/>
         <v>2062.829999999999</v>
+      </c>
+      <c r="L165" s="1">
+        <f t="shared" si="7"/>
+        <v>3.4621088504627133</v>
       </c>
     </row>
   </sheetData>
@@ -9150,16 +9818,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20259AED-3FEE-4ABA-9414-DC0D083BDA7A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Road quality/processed_weighted_formal_road_quality.xlsx
+++ b/Road quality/processed_weighted_formal_road_quality.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Chapter\Output\Road quality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Chapter\TRIPI-GH-v100\Road quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4291D8E-A001-45CC-9083-BF0BDB287752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE035393-77BF-441A-B575-00BD0250034D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="0" windowWidth="20760" windowHeight="20400" xr2:uid="{25FFB5B8-6A00-452C-B9AD-8BC39AB1785A}"/>
+    <workbookView xWindow="17670" yWindow="825" windowWidth="19275" windowHeight="19110" xr2:uid="{25FFB5B8-6A00-452C-B9AD-8BC39AB1785A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Quality of road by country" sheetId="2" r:id="rId1"/>
+    <sheet name="Coversheet" sheetId="3" r:id="rId1"/>
+    <sheet name="Quality of road by country" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t>country</t>
   </si>
@@ -567,14 +568,93 @@
   </si>
   <si>
     <t>Weighted grade</t>
+  </si>
+  <si>
+    <t>Title:</t>
+  </si>
+  <si>
+    <t>TRIPI: A global dataset and codebase of the Total Resources In Physical Infrastructure encompassing road, rail, and parking.</t>
+  </si>
+  <si>
+    <t>Project:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CircoMod – Circular Economy Modelling for Climate Change Mitigation 101056868 </t>
+  </si>
+  <si>
+    <t>Content:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Van Engelenburg, M., Deetman, S., Fishman, T., Behrens, P., &amp; van der Voet, E. (2024). TRIPI: A global dataset and codebase of the Total Resources In Physical Infrastructure encompassing road, rail, and parking. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In review</t>
+    </r>
+  </si>
+  <si>
+    <t>Contact:</t>
+  </si>
+  <si>
+    <t>Martijn van Engelenburg</t>
+  </si>
+  <si>
+    <t>m.van.engelenburg@cml.leidenuniv.nl</t>
+  </si>
+  <si>
+    <t>CML</t>
+  </si>
+  <si>
+    <t>Leiden University</t>
+  </si>
+  <si>
+    <t>Quality of formal road network v.1.0.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -599,15 +679,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="ANCLAS,REZONES Y SUS PARTES,DE FUNDICION,DE HIERRO O DE ACERO" xfId="2" xr:uid="{4CBCAE44-8568-4ECC-82D2-C1988723A0B5}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2 2" xfId="3" xr:uid="{41D847F5-9CFB-4B44-BEE7-31C8D05BBFEE}"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -630,6 +719,133 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>43139</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50ACC6DD-B18E-4382-8520-937A862EAE33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="190501"/>
+          <a:ext cx="3091139" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="CircoMod – Circular Economy Modelling for Climate Change Mitigation –  iamconsortium">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EEC8011-B30E-427A-BF2E-DE1D79C64BCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3686175" y="190500"/>
+          <a:ext cx="2600325" cy="1715303"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2869,11 +3085,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DF3564-C263-4CA4-A959-F4DFC98F742A}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B12:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{3945AF39-D6D8-4919-B96E-4567D11358D6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE5E7D8-FFA8-47C2-881D-ED81D7EA02C0}">
   <dimension ref="A1:L165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9678,7 +9984,7 @@
         <v>180.32499999999999</v>
       </c>
       <c r="K162">
-        <f t="shared" ref="K162:K193" si="8">SUM(D162:J162)</f>
+        <f t="shared" ref="K162:K165" si="8">SUM(D162:J162)</f>
         <v>2279.0249999999996</v>
       </c>
       <c r="L162" s="1">
